--- a/MyJDR_Calc GPT.xlsx
+++ b/MyJDR_Calc GPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://settis-my.sharepoint.com/personal/alexandre_receveur_alliance4u_fr/Documents/Documents/JDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{BD18FF20-F195-4B26-9B6D-6FBF5119A8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3DC9B64-FFEC-4B6B-A3AA-218DCF163E5E}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="8_{BD18FF20-F195-4B26-9B6D-6FBF5119A8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C545933-A96D-4E29-B3C9-3D18FCD45626}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objets" sheetId="15" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="611">
   <si>
     <t>Roll</t>
   </si>
@@ -859,15 +859,6 @@
   </si>
   <si>
     <t>Element</t>
-  </si>
-  <si>
-    <t>Coût</t>
-  </si>
-  <si>
-    <t>Puissance</t>
-  </si>
-  <si>
-    <t>PV rendus</t>
   </si>
   <si>
     <t>Evolution</t>
@@ -1966,6 +1957,15 @@
   </si>
   <si>
     <t>Devient le centre d'attention des attaques ennemis</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>ally</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -2897,6 +2897,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -3264,7 +3268,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -3428,7 +3432,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D8" s="3">
         <v>160</v>
@@ -3670,7 +3674,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="J1" s="123" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K1" s="123"/>
       <c r="L1" s="123"/>
@@ -3706,7 +3710,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="130" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K2" s="131"/>
       <c r="L2" s="131"/>
@@ -3738,7 +3742,7 @@
       <c r="AF2" s="140"/>
       <c r="AG2" s="141"/>
       <c r="AH2" s="123" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AI2" s="123"/>
       <c r="AJ2" s="123"/>
@@ -3746,7 +3750,7 @@
       <c r="AL2" s="123"/>
       <c r="AM2" s="123"/>
       <c r="AN2" s="124" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AO2" s="124"/>
       <c r="AP2" s="124"/>
@@ -3756,25 +3760,25 @@
     </row>
     <row r="3" spans="1:45">
       <c r="A3" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -3855,40 +3859,40 @@
         <v>6</v>
       </c>
       <c r="AH3" s="90" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI3" s="90" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ3" s="90" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK3" s="90" t="s">
         <v>384</v>
       </c>
-      <c r="AI3" s="90" t="s">
+      <c r="AL3" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="AJ3" s="90" t="s">
+      <c r="AM3" s="90" t="s">
         <v>386</v>
       </c>
-      <c r="AK3" s="90" t="s">
+      <c r="AN3" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO3" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP3" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ3" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="AR3" s="91" t="s">
         <v>387</v>
       </c>
-      <c r="AL3" s="90" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM3" s="90" t="s">
-        <v>389</v>
-      </c>
-      <c r="AN3" s="91" t="s">
-        <v>384</v>
-      </c>
-      <c r="AO3" s="91" t="s">
-        <v>385</v>
-      </c>
-      <c r="AP3" s="91" t="s">
+      <c r="AS3" s="92" t="s">
         <v>386</v>
-      </c>
-      <c r="AQ3" s="91" t="s">
-        <v>387</v>
-      </c>
-      <c r="AR3" s="91" t="s">
-        <v>390</v>
-      </c>
-      <c r="AS3" s="92" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="15.5">
@@ -3902,7 +3906,7 @@
         <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>143</v>
@@ -3910,7 +3914,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="25">
@@ -4010,7 +4014,7 @@
         <v>180</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
@@ -4050,16 +4054,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="25">
@@ -4159,15 +4163,15 @@
         <v>280</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM5" s="17"/>
       <c r="AN5" s="89" cm="1">
@@ -4203,10 +4207,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>143</v>
@@ -4214,7 +4218,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="25">
@@ -4314,10 +4318,10 @@
         <v>280</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
@@ -4359,13 +4363,13 @@
         <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="25">
@@ -4465,14 +4469,14 @@
         <v>350</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN7" s="89" cm="1">
         <f t="array" ref="AN7">IF(AH7="Oui",($A7/$B7)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -4507,10 +4511,10 @@
         <v>2.5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>163</v>
@@ -4518,7 +4522,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="25">
@@ -4618,13 +4622,13 @@
         <v>350</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM8" s="17"/>
       <c r="AN8" s="89" cm="1">
@@ -4663,7 +4667,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>146</v>
@@ -4673,10 +4677,10 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="4"/>
@@ -4775,15 +4779,15 @@
         <v>480</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM9" s="17"/>
       <c r="AN9" s="89" cm="1">
@@ -4819,10 +4823,10 @@
         <v>3.75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>143</v>
@@ -4832,10 +4836,10 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="4"/>
@@ -4936,12 +4940,12 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN10" s="89" cm="1">
         <f t="array" ref="AN10">IF(AH10="Oui",($A10/$B10)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -4976,10 +4980,10 @@
         <v>3.75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>163</v>
@@ -4991,10 +4995,10 @@
         <v>124</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="4"/>
@@ -5094,14 +5098,14 @@
       </c>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM11" s="17"/>
       <c r="AN11" s="89" cm="1">
@@ -5137,10 +5141,10 @@
         <v>3.75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>124</v>
@@ -5152,10 +5156,10 @@
         <v>160</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="4"/>
@@ -5256,10 +5260,10 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL12" s="3"/>
       <c r="AM12" s="17"/>
@@ -5299,7 +5303,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>160</v>
@@ -5311,10 +5315,10 @@
         <v>163</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="4"/>
@@ -5415,14 +5419,14 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN13" s="89" cm="1">
         <f t="array" ref="AN13">IF(AH13="Oui",($A13/$B13)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -5457,10 +5461,10 @@
         <v>3.75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>167</v>
@@ -5469,10 +5473,10 @@
         <v>193</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="4"/>
@@ -5572,7 +5576,7 @@
       </c>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
@@ -5611,10 +5615,10 @@
         <v>3.75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5622,10 +5626,10 @@
         <v>143</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="4"/>
@@ -5724,10 +5728,10 @@
         <v>480</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI15" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
@@ -5766,17 +5770,17 @@
         <v>4.5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -5881,10 +5885,10 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM16" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN16" s="89" cm="1">
         <f t="array" ref="AN16">IF(AH16="Oui",($A16/$B16)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -5919,16 +5923,16 @@
         <v>4.5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="25">
@@ -6029,7 +6033,7 @@
       </c>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -6068,10 +6072,10 @@
         <v>7.5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6180,10 +6184,10 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL18" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM18" s="17"/>
       <c r="AN18" s="89" cm="1">
@@ -6219,10 +6223,10 @@
         <v>7.5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>143</v>
@@ -6328,16 +6332,16 @@
         <v>960</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM19" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN19" s="89" cm="1">
         <f t="array" ref="AN19">IF(AH19="Oui",($A19/$B19)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -6372,10 +6376,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>160</v>
@@ -6383,7 +6387,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="25">
@@ -6484,13 +6488,13 @@
       </c>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL20" s="3"/>
       <c r="AM20" s="17"/>
@@ -6527,10 +6531,10 @@
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>146</v>
@@ -6638,22 +6642,22 @@
         <v>1260</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM21" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN21" s="89" cm="1">
         <f t="array" ref="AN21">IF(AH21="Oui",($A21/$B21)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -6688,20 +6692,20 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
         <v>167</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="25">
@@ -6802,13 +6806,13 @@
       </c>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL22" s="3"/>
       <c r="AM22" s="17"/>
@@ -6845,20 +6849,20 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="25">
@@ -6960,10 +6964,10 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL23" s="3"/>
       <c r="AM23" s="17"/>
@@ -7010,7 +7014,7 @@
         <v>146</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="25">
@@ -7115,7 +7119,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN24" s="89" cm="1">
         <f t="array" ref="AN24">IF(AH24="Oui",($A24/$B24)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -7150,20 +7154,20 @@
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="25">
@@ -7263,15 +7267,15 @@
         <v>2250</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL25" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM25" s="17"/>
       <c r="AN25" s="89" cm="1">
@@ -7307,10 +7311,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>143</v>
@@ -7318,7 +7322,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="25">
@@ -7418,7 +7422,7 @@
         <v>2500</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
@@ -7458,13 +7462,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
@@ -7572,13 +7576,13 @@
       </c>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ27" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK27" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL27" s="3"/>
       <c r="AM27" s="17"/>
@@ -7615,17 +7619,17 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>157</v>
@@ -7728,22 +7732,22 @@
         <v>3150</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM28" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN28" s="89" cm="1">
         <f t="array" ref="AN28">IF(AH28="Oui",($A28/$B28)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -7778,20 +7782,20 @@
         <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="25">
@@ -7896,7 +7900,7 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN29" s="89" cm="1">
         <f t="array" ref="AN29">IF(AH29="Oui",($A29/$B29)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -7931,20 +7935,20 @@
         <v>37.5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="25">
@@ -8045,14 +8049,14 @@
       </c>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ30" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM30" s="17"/>
       <c r="AN30" s="89" cm="1">
@@ -8088,18 +8092,18 @@
         <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="25">
@@ -8200,7 +8204,7 @@
       </c>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
@@ -8239,10 +8243,10 @@
         <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>146</v>
@@ -8354,7 +8358,7 @@
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM32" s="17"/>
       <c r="AN32" s="89" cm="1">
@@ -8390,10 +8394,10 @@
         <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>124</v>
@@ -8506,7 +8510,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN33" s="89" cm="1">
         <f t="array" ref="AN33">IF(AH33="Oui",($A33/$B33)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -8544,7 +8548,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>143</v>
@@ -8552,7 +8556,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="25">
@@ -8657,7 +8661,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AN34" s="89" cm="1">
         <f t="array" ref="AN34">IF(AH34="Oui",($A34/$B34)/(SUMPRODUCT((AH$4:AH$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -8695,7 +8699,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E35" s="53" t="s">
         <v>21</v>
@@ -8812,7 +8816,7 @@
       <c r="AI35" s="53"/>
       <c r="AJ35" s="53"/>
       <c r="AK35" s="53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL35" s="53"/>
       <c r="AM35" s="66"/>
@@ -8843,16 +8847,16 @@
     </row>
     <row r="36" spans="1:45">
       <c r="A36" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -9039,15 +9043,15 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="142" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2:G29">_xlfn.LET(_xlpm.armes,C2,_xlfn._xlws.FILTER(Armes!$D$3:$D$60,(ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),1), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),2), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),3), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),4), Armes!$A$3:$A$60)))=1))</f>
@@ -9056,17 +9060,17 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G3" t="str">
         <v>Epée de mithril</v>
@@ -9077,14 +9081,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D4" s="143"/>
       <c r="E4" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G4" t="str">
         <v>Epée Sanguine</v>
@@ -9095,10 +9099,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="20"/>
@@ -9111,10 +9115,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D6" s="147"/>
       <c r="E6" s="20"/>
@@ -9127,10 +9131,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D7" s="143"/>
       <c r="E7" s="20"/>
@@ -9143,14 +9147,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C8" s="142" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D8" s="143"/>
       <c r="E8" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G8" t="str">
         <v>Dévoreuse</v>
@@ -9161,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C9" s="142" t="s">
         <v>177</v>
@@ -9177,14 +9181,14 @@
         <v>1</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D10" s="143"/>
       <c r="E10" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G10" t="str">
         <v>Excalibur</v>
@@ -9195,14 +9199,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D11" s="143"/>
       <c r="E11" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G11" t="str">
         <v>Ragnarok</v>
@@ -9213,14 +9217,14 @@
         <v>1</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D12" s="143"/>
       <c r="E12" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G12" t="str">
         <v>Marteau</v>
@@ -9231,14 +9235,14 @@
         <v>1</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D13" s="143"/>
       <c r="E13" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G13" t="str">
         <v>Marteau de guerre</v>
@@ -9249,10 +9253,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D14" s="143"/>
       <c r="E14" s="20"/>
@@ -9265,14 +9269,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D15" s="143"/>
       <c r="E15" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G15" t="str">
         <v>Marteau de mithril</v>
@@ -9283,16 +9287,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>462</v>
-      </c>
       <c r="E16" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G16" t="str">
         <v>Mjölnir</v>
@@ -9300,19 +9304,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C17" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>464</v>
-      </c>
       <c r="E17" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G17" t="str">
         <v>Héphaïstos</v>
@@ -9320,19 +9324,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G18" t="str">
         <v>Masse d'arme</v>
@@ -9340,19 +9344,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G19" t="str">
         <v>Masse de bronze</v>
@@ -9360,19 +9364,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G20" t="str">
         <v>Masse du délire</v>
@@ -9380,19 +9384,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G21" t="str">
         <v>Crosse de diamant</v>
@@ -9400,7 +9404,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -9489,15 +9493,15 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="142" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2:G19">_xlfn.LET(_xlpm.armes,C2,_xlfn._xlws.FILTER(Armes!$D$3:$D$60,(ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),1), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),2), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),3), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),4), Armes!$A$3:$A$60)))=1))</f>
@@ -9506,17 +9510,17 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G3" t="str">
         <v>Osafune</v>
@@ -9527,14 +9531,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D4" s="143"/>
       <c r="E4" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G4" t="str">
         <v>Murasame</v>
@@ -9545,7 +9549,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>10</v>
@@ -9561,7 +9565,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C6" s="142" t="s">
         <v>126</v>
@@ -9577,14 +9581,14 @@
         <v>10</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C7" s="142" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="143"/>
       <c r="E7" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G7" t="str">
         <v>Masamune</v>
@@ -9595,10 +9599,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C8" s="142" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D8" s="143"/>
       <c r="E8" s="20"/>
@@ -9611,14 +9615,14 @@
         <v>15</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D9" s="143"/>
       <c r="E9" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G9" t="str">
         <v>Coutelas</v>
@@ -9629,14 +9633,14 @@
         <v>18</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D10" s="143"/>
       <c r="E10" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G10" t="str">
         <v>Main gauche</v>
@@ -9644,10 +9648,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>124</v>
@@ -9656,7 +9660,7 @@
         <v>131</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G11" t="str">
         <v>Kukris</v>
@@ -9664,10 +9668,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>180</v>
@@ -9676,7 +9680,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G12" t="str">
         <v>Orochi</v>
@@ -9684,10 +9688,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>146</v>
@@ -9696,7 +9700,7 @@
         <v>133</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G13" t="str">
         <v>Dague Zorin</v>
@@ -9704,19 +9708,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G14" t="str">
         <v>Arc court</v>
@@ -9724,10 +9728,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>129</v>
@@ -9736,7 +9740,7 @@
         <v>135</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G15" t="str">
         <v>Arc de chasse</v>
@@ -9744,17 +9748,17 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D16" s="63"/>
       <c r="E16" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G16" t="str">
         <v>Arc Assassin</v>
@@ -9762,7 +9766,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -9821,15 +9825,15 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="142" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2:G25">_xlfn.LET(_xlpm.armes,C2,_xlfn._xlws.FILTER(Armes!$D$3:$D$60,(ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),1), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),2), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),3), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),4), Armes!$A$3:$A$60)))=1))</f>
@@ -9838,17 +9842,17 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G3" t="str">
         <v>Marteau de guerre</v>
@@ -9859,14 +9863,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C4" s="142" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="143"/>
       <c r="E4" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G4" t="str">
         <v>Règle cylindrique</v>
@@ -9877,7 +9881,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>124</v>
@@ -9893,7 +9897,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C6" s="142" t="s">
         <v>192</v>
@@ -9909,14 +9913,14 @@
         <v>7</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C7" s="142" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="143"/>
       <c r="E7" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G7" t="str">
         <v>Héphaïstos</v>
@@ -9927,7 +9931,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C8" s="142" t="s">
         <v>7</v>
@@ -9943,14 +9947,14 @@
         <v>12</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D9" s="143"/>
       <c r="E9" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G9" t="str">
         <v>Masse de bronze</v>
@@ -9961,14 +9965,14 @@
         <v>12</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C10" s="142" t="s">
         <v>152</v>
       </c>
       <c r="D10" s="143"/>
       <c r="E10" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G10" t="str">
         <v>Masse du délire</v>
@@ -9979,7 +9983,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C11" s="142" t="s">
         <v>150</v>
@@ -9995,14 +9999,14 @@
         <v>15</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C12" s="142" t="s">
         <v>197</v>
       </c>
       <c r="D12" s="143"/>
       <c r="E12" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G12" t="str">
         <v>Masse de Zeus</v>
@@ -10013,14 +10017,14 @@
         <v>18</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C13" s="142" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="143"/>
       <c r="E13" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G13" t="str">
         <v>Masse de maître</v>
@@ -10028,19 +10032,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>199</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G14" t="str">
         <v>Bâton de mage</v>
@@ -10048,19 +10052,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G15" t="str">
         <v>Bâton doré</v>
@@ -10068,19 +10072,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G16" t="str">
         <v>Caducée</v>
@@ -10088,19 +10092,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G17" t="str">
         <v>Sceptre Ophidien</v>
@@ -10108,19 +10112,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G18" t="str">
         <v>Sceptre Céleste</v>
@@ -10128,19 +10132,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G19" t="str">
         <v>Sceptre de la foi</v>
@@ -10148,19 +10152,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G20" t="str">
         <v>Kotetsu</v>
@@ -10168,7 +10172,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -10240,15 +10244,15 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="33" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2:G13">_xlfn.LET(_xlpm.armes,C2,_xlfn._xlws.FILTER(Armes!$D$3:$D$60,(ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),1), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),2), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),3), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),4), Armes!$A$3:$A$60)))=1))</f>
@@ -10257,17 +10261,17 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D3" s="55"/>
       <c r="E3" s="23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G3" t="str">
         <v>Marteau de guerre</v>
@@ -10278,14 +10282,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>192</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G4" t="str">
         <v>Règle cylindrique</v>
@@ -10296,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>197</v>
@@ -10312,10 +10316,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="20"/>
@@ -10328,14 +10332,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G7" t="str">
         <v>Héphaïstos</v>
@@ -10346,7 +10350,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>199</v>
@@ -10362,14 +10366,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>203</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G9" t="str">
         <v>Bâton doré</v>
@@ -10380,14 +10384,14 @@
         <v>10</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>219</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G10" t="str">
         <v>Caducée</v>
@@ -10398,7 +10402,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>201</v>
@@ -10414,14 +10418,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G12" t="str">
         <v>Sceptre Céleste</v>
@@ -10432,14 +10436,14 @@
         <v>15</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>211</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G13" t="str">
         <v>Sceptre de la foi</v>
@@ -10450,120 +10454,120 @@
         <v>18</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
         <v>207</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C21" s="19"/>
     </row>
@@ -10598,15 +10602,15 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="142" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2:G13">_xlfn.LET(_xlpm.armes,C2,_xlfn._xlws.FILTER(Armes!$D$3:$D$60,(ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),1), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),2), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),3), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),4), Armes!$A$3:$A$60)))=1))</f>
@@ -10615,17 +10619,17 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G3" t="str">
         <v>Bâton doré</v>
@@ -10636,14 +10640,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C4" s="142" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="143"/>
       <c r="E4" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G4" t="str">
         <v>Caducée</v>
@@ -10654,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>124</v>
@@ -10670,7 +10674,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C6" s="142" t="s">
         <v>173</v>
@@ -10686,14 +10690,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C7" s="142" t="s">
         <v>175</v>
       </c>
       <c r="D7" s="143"/>
       <c r="E7" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G7" t="str">
         <v>Sceptre de la foi</v>
@@ -10704,7 +10708,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C8" s="142" t="s">
         <v>145</v>
@@ -10720,14 +10724,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D9" s="143"/>
       <c r="E9" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G9" t="str">
         <v>Coutelas</v>
@@ -10738,14 +10742,14 @@
         <v>10</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D10" s="143"/>
       <c r="E10" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G10" t="str">
         <v>Main gauche</v>
@@ -10756,14 +10760,14 @@
         <v>12</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D11" s="143"/>
       <c r="E11" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G11" t="str">
         <v>Kukris</v>
@@ -10774,14 +10778,14 @@
         <v>15</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D12" s="143"/>
       <c r="E12" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G12" t="str">
         <v>Orochi</v>
@@ -10792,14 +10796,14 @@
         <v>18</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D13" s="143"/>
       <c r="E13" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G13" t="str">
         <v>Dague Zorin</v>
@@ -10807,109 +10811,109 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -10936,7 +10940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A89266-49CD-4BDF-82EB-2DDFEA3EF1CB}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -10956,15 +10960,15 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="142" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G2" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="G2" ca="1">_xlfn.LET(_xlpm.armes,INDIRECT("'" &amp; F5 &amp; "'!C2"),_xlfn._xlws.FILTER(Armes!$D$3:$D$60,(ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),1), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),2), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),3), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),4), Armes!$A$3:$A$60))+ISNUMBER(FIND(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(_xlpm.armes,","),5), Armes!$A$3:$A$60)))=1))</f>
@@ -10973,17 +10977,17 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
@@ -10991,14 +10995,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D4" s="143"/>
       <c r="E4" s="19" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11006,10 +11010,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C5" s="148" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D5" s="149"/>
       <c r="E5" s="20"/>
@@ -11019,10 +11023,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C6" s="142" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D6" s="143"/>
       <c r="E6" s="20"/>
@@ -11032,14 +11036,14 @@
         <v>10</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D7" s="143"/>
       <c r="E7" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11047,10 +11051,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C8" s="142" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D8" s="143"/>
       <c r="E8" s="20"/>
@@ -11060,14 +11064,14 @@
         <v>15</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D9" s="143"/>
       <c r="E9" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11075,116 +11079,116 @@
         <v>18</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D10" s="143"/>
       <c r="E10" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -11567,7 +11571,7 @@
         <v>169</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>169</v>
@@ -11596,7 +11600,7 @@
         <v>169</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -11625,13 +11629,13 @@
         <v>169</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11654,7 +11658,7 @@
         <v>169</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H18" s="3">
         <v>2</v>
@@ -11683,7 +11687,7 @@
         <v>169</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>169</v>
@@ -11712,7 +11716,7 @@
         <v>169</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H20" s="17">
         <v>3</v>
@@ -11741,7 +11745,7 @@
         <v>169</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H21" s="17">
         <v>2</v>
@@ -11770,7 +11774,7 @@
         <v>169</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H22" s="17">
         <v>2</v>
@@ -11799,7 +11803,7 @@
         <v>169</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>169</v>
@@ -11828,13 +11832,13 @@
         <v>169</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>169</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -11857,7 +11861,7 @@
         <v>169</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>169</v>
@@ -11913,7 +11917,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H27" s="29">
         <v>3</v>
@@ -11996,7 +12000,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H30" s="29">
         <v>4</v>
@@ -12079,7 +12083,7 @@
         <v>6</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H33" s="29">
         <v>5</v>
@@ -12135,7 +12139,7 @@
         <v>169</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>169</v>
@@ -12245,7 +12249,7 @@
         <v>169</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H39" s="29" t="s">
         <v>169</v>
@@ -12274,7 +12278,7 @@
         <v>169</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H40" s="29">
         <v>3</v>
@@ -12321,7 +12325,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -12336,7 +12340,7 @@
         <v>222</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>224</v>
@@ -12454,10 +12458,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>229</v>
@@ -12534,32 +12538,32 @@
         <v>188</v>
       </c>
       <c r="B19" s="121" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C19" s="121" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="108" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B20" s="108" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C20" s="108" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="108" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B21" s="108" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C21" s="108" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -12567,32 +12571,32 @@
         <v>211</v>
       </c>
       <c r="B22" s="121" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C22" s="121" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="122" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B23" s="122" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C23" s="122" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="108" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B24" s="108" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C24" s="108" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -12610,11 +12614,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17228FC4-016A-49B4-9050-254146F5DBEC}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="B1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -12625,36 +12629,33 @@
     <col min="8" max="8" width="82.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="30" t="s">
-        <v>564</v>
-      </c>
+    <row r="1" spans="2:9">
       <c r="B1" s="30" t="s">
         <v>222</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>257</v>
+        <v>559</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="45" t="s">
-        <v>119</v>
-      </c>
+    </row>
+    <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
@@ -12667,16 +12668,18 @@
       <c r="E2" s="25">
         <v>3</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="F2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H2" s="25" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="38" t="s">
         <v>145</v>
       </c>
@@ -12689,16 +12692,18 @@
       <c r="E3" s="26">
         <v>3</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H3" s="26" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="39" t="s">
         <v>124</v>
       </c>
@@ -12711,16 +12716,18 @@
       <c r="E4" s="27">
         <v>3</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H4" s="27" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
@@ -12733,16 +12740,18 @@
       <c r="E5" s="25">
         <v>5</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H5" s="25" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="38" t="s">
         <v>150</v>
       </c>
@@ -12755,16 +12764,18 @@
       <c r="E6" s="26">
         <v>5</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H6" s="26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="39" t="s">
         <v>152</v>
       </c>
@@ -12777,16 +12788,18 @@
       <c r="E7" s="27">
         <v>5</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H7" s="27" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="37" t="s">
         <v>8</v>
       </c>
@@ -12799,16 +12812,18 @@
       <c r="E8" s="25">
         <v>7</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H8" s="25" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="38" t="s">
         <v>155</v>
       </c>
@@ -12821,16 +12836,18 @@
       <c r="E9" s="26">
         <v>7</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H9" s="26" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="39" t="s">
         <v>157</v>
       </c>
@@ -12843,16 +12860,18 @@
       <c r="E10" s="27">
         <v>7</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H10" s="27" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="40" t="s">
         <v>159</v>
       </c>
@@ -12865,16 +12884,18 @@
       <c r="E11" s="15">
         <v>8</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H11" s="15" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="41" t="s">
         <v>162</v>
       </c>
@@ -12887,36 +12908,42 @@
       <c r="E12" s="13">
         <v>8</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H12" s="13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="43" t="s">
         <v>167</v>
       </c>
@@ -12924,227 +12951,307 @@
         <v>168</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H14" s="28" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H15" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I15" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>2</v>
+      <c r="E16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>608</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="45" t="s">
-        <v>119</v>
-      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>2</v>
+      <c r="E18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>608</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H19" s="53" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I19" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="17">
-        <v>3</v>
+      <c r="E20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>609</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I20" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="17">
-        <v>2</v>
+      <c r="E21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>609</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I21" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="17">
-        <v>2</v>
+      <c r="E22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>609</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I22" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>609</v>
+      </c>
       <c r="H23" s="36" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I23" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H24" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I24" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I25" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="44" t="s">
         <v>192</v>
       </c>
@@ -13154,19 +13261,23 @@
       <c r="D26" s="29">
         <v>1</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="F26" s="29">
         <v>3</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="46" t="s">
+        <v>609</v>
+      </c>
       <c r="H26" s="29" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I26" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="44" t="s">
         <v>195</v>
       </c>
@@ -13176,21 +13287,23 @@
       <c r="D27" s="29">
         <v>1</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="F27" s="29">
         <v>2</v>
       </c>
-      <c r="G27" s="29">
-        <v>3</v>
+      <c r="G27" s="46" t="s">
+        <v>609</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I27" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="44" t="s">
         <v>197</v>
       </c>
@@ -13203,16 +13316,20 @@
       <c r="E28" s="29">
         <v>3</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H28" s="29" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I28" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="44" t="s">
         <v>199</v>
       </c>
@@ -13222,19 +13339,23 @@
       <c r="D29" s="29">
         <v>2</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="F29" s="29">
         <v>7</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="46" t="s">
+        <v>609</v>
+      </c>
       <c r="H29" s="29" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I29" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="44" t="s">
         <v>201</v>
       </c>
@@ -13244,21 +13365,23 @@
       <c r="D30" s="29">
         <v>2</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="F30" s="29">
         <v>4</v>
       </c>
-      <c r="G30" s="29">
-        <v>4</v>
+      <c r="G30" s="46" t="s">
+        <v>609</v>
       </c>
       <c r="H30" s="29" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I30" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="44" t="s">
         <v>203</v>
       </c>
@@ -13271,16 +13394,20 @@
       <c r="E31" s="29">
         <v>5</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="F31" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H31" s="29" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I31" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="44" t="s">
         <v>205</v>
       </c>
@@ -13290,19 +13417,23 @@
       <c r="D32" s="29">
         <v>3</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="F32" s="29">
         <v>15</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="46" t="s">
+        <v>609</v>
+      </c>
       <c r="H32" s="29" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I32" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="44" t="s">
         <v>207</v>
       </c>
@@ -13312,21 +13443,23 @@
       <c r="D33" s="29">
         <v>3</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="F33" s="29">
         <v>6</v>
       </c>
-      <c r="G33" s="29">
-        <v>5</v>
+      <c r="G33" s="46" t="s">
+        <v>609</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I33" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="44" t="s">
         <v>209</v>
       </c>
@@ -13339,16 +13472,20 @@
       <c r="E34" s="29">
         <v>7</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="F34" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H34" s="29" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I34" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="44" t="s">
         <v>211</v>
       </c>
@@ -13358,17 +13495,23 @@
       <c r="D35" s="29">
         <v>2</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="E35" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>609</v>
+      </c>
       <c r="H35" s="29" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I35" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="44" t="s">
         <v>213</v>
       </c>
@@ -13378,19 +13521,23 @@
       <c r="D36" s="29">
         <v>3</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="F36" s="29">
         <v>5</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="46" t="s">
+        <v>609</v>
+      </c>
       <c r="H36" s="29" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I36" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="44" t="s">
         <v>215</v>
       </c>
@@ -13400,19 +13547,23 @@
       <c r="D37" s="29">
         <v>4</v>
       </c>
-      <c r="E37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="F37" s="29">
         <v>12</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="46" t="s">
+        <v>609</v>
+      </c>
       <c r="H37" s="29" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I37" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="44" t="s">
         <v>216</v>
       </c>
@@ -13422,19 +13573,23 @@
       <c r="D38" s="29">
         <v>5</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="E38" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="F38" s="29">
         <v>20</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="46" t="s">
+        <v>609</v>
+      </c>
       <c r="H38" s="29" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I38" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="44" t="s">
         <v>217</v>
       </c>
@@ -13444,17 +13599,23 @@
       <c r="D39" s="29">
         <v>2</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="E39" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>609</v>
+      </c>
       <c r="H39" s="29" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="I39" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" s="44" t="s">
         <v>219</v>
       </c>
@@ -13464,19 +13625,23 @@
       <c r="D40" s="29">
         <v>1</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29">
-        <v>3</v>
+      <c r="E40" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>609</v>
       </c>
       <c r="H40" s="29" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="45" t="s">
-        <v>119</v>
-      </c>
+      <c r="I40" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="44" t="s">
         <v>125</v>
       </c>
@@ -13489,10 +13654,17 @@
       <c r="E41" s="29">
         <v>15</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="F41" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="H41" s="29" t="s">
         <v>221</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -13504,8 +13676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D71493-ACD7-4179-A48F-6767774FF650}">
   <dimension ref="A2:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -13532,34 +13704,34 @@
         <v>117</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D2" s="110" t="s">
         <v>222</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F2" s="115" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G2" s="116" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H2" s="116" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I2" s="116" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J2" s="115" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="115" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L2" s="115" t="s">
         <v>142</v>
@@ -13568,13 +13740,13 @@
         <v>256</v>
       </c>
       <c r="N2" s="117" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O2" s="32" t="s">
         <v>223</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -13586,10 +13758,10 @@
         <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -13607,10 +13779,10 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -13622,10 +13794,10 @@
         <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -13641,10 +13813,10 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -13659,7 +13831,7 @@
         <v>126</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F5" s="73">
         <v>1</v>
@@ -13679,7 +13851,7 @@
         <v>123</v>
       </c>
       <c r="O5" s="53" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P5" s="53"/>
     </row>
@@ -13695,7 +13867,7 @@
         <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
@@ -13711,7 +13883,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P6" s="3"/>
     </row>
@@ -13727,7 +13899,7 @@
         <v>128</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -13743,7 +13915,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P7" s="3"/>
     </row>
@@ -13756,10 +13928,10 @@
         <v>179</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9">
@@ -13778,7 +13950,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -13790,10 +13962,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
@@ -13809,7 +13981,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P9" s="3"/>
     </row>
@@ -13818,16 +13990,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C10" s="77" t="s">
         <v>179</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
@@ -13852,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>119</v>
@@ -13861,7 +14033,7 @@
         <v>130</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9">
@@ -13873,11 +14045,11 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P11" s="3"/>
     </row>
@@ -13886,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>119</v>
@@ -13895,7 +14067,7 @@
         <v>131</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
@@ -13913,7 +14085,7 @@
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P12" s="3"/>
     </row>
@@ -13922,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C13" s="76" t="s">
         <v>119</v>
@@ -13931,7 +14103,7 @@
         <v>132</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F13" s="9">
         <v>2</v>
@@ -13947,7 +14119,7 @@
       <c r="M13" s="79"/>
       <c r="N13" s="79"/>
       <c r="O13" s="78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P13" s="42"/>
     </row>
@@ -13956,7 +14128,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C14" s="76" t="s">
         <v>119</v>
@@ -13965,7 +14137,7 @@
         <v>133</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
@@ -13982,10 +14154,10 @@
         <v>146</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O14" s="78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P14" s="42"/>
     </row>
@@ -13994,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" s="76" t="s">
         <v>119</v>
@@ -14003,7 +14175,7 @@
         <v>134</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9">
@@ -14017,7 +14189,7 @@
       <c r="M15" s="79"/>
       <c r="N15" s="79"/>
       <c r="O15" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P15" s="42"/>
     </row>
@@ -14026,7 +14198,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C16" s="80" t="s">
         <v>119</v>
@@ -14035,7 +14207,7 @@
         <v>135</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F16" s="73">
         <v>1</v>
@@ -14051,23 +14223,23 @@
       <c r="M16" s="81"/>
       <c r="N16" s="81"/>
       <c r="O16" s="82" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P16" s="83"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9">
@@ -14081,23 +14253,23 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F18" s="9">
         <v>1</v>
@@ -14113,23 +14285,23 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F19" s="9">
         <v>1</v>
@@ -14151,17 +14323,17 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F20" s="9">
         <v>5</v>
@@ -14177,23 +14349,23 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F21" s="9">
         <v>1</v>
@@ -14215,17 +14387,17 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="77" t="s">
         <v>179</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9">
@@ -14239,23 +14411,23 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
@@ -14275,17 +14447,17 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F24" s="9">
         <v>1</v>
@@ -14305,17 +14477,17 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F25" s="9">
         <v>3</v>
@@ -14331,23 +14503,23 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9">
@@ -14361,23 +14533,23 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9">
@@ -14391,23 +14563,23 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9">
@@ -14425,23 +14597,23 @@
         <v>234</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F29" s="118">
         <v>3</v>
@@ -14461,17 +14633,17 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
@@ -14491,17 +14663,17 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F31" s="118"/>
       <c r="G31" s="9">
@@ -14517,23 +14689,23 @@
       </c>
       <c r="N31" s="9"/>
       <c r="O31" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9">
@@ -14551,23 +14723,23 @@
         <v>234</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F33" s="73">
         <v>1</v>
@@ -14583,23 +14755,23 @@
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
       <c r="O33" s="53" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P33" s="53"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="80" t="s">
         <v>119</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F34" s="73">
         <v>2</v>
@@ -14619,17 +14791,17 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="108" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B35" s="108"/>
       <c r="C35" s="111" t="s">
         <v>179</v>
       </c>
       <c r="D35" s="112" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E35" s="108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F35" s="113"/>
       <c r="G35" s="113">
@@ -14645,25 +14817,25 @@
       <c r="M35" s="113"/>
       <c r="N35" s="113"/>
       <c r="O35" s="108" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P35" s="108" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="108" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B36" s="108"/>
       <c r="C36" s="111" t="s">
         <v>179</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E36" s="108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F36" s="113"/>
       <c r="G36" s="113">
@@ -14673,7 +14845,7 @@
       <c r="I36" s="113"/>
       <c r="J36" s="113"/>
       <c r="K36" s="113" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L36" s="113">
         <v>5</v>
@@ -14681,25 +14853,25 @@
       <c r="M36" s="113"/>
       <c r="N36" s="113"/>
       <c r="O36" s="108" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P36" s="108" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="108" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B37" s="108"/>
       <c r="C37" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D37" s="108" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E37" s="108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F37" s="113">
         <v>1</v>
@@ -14715,23 +14887,23 @@
       <c r="M37" s="113"/>
       <c r="N37" s="113"/>
       <c r="O37" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P37" s="108"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="108" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B38" s="108"/>
       <c r="C38" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D38" s="108" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E38" s="108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F38" s="113">
         <v>2</v>
@@ -14747,23 +14919,23 @@
       <c r="M38" s="113"/>
       <c r="N38" s="113"/>
       <c r="O38" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="P38" s="108"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="108" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B39" s="108"/>
       <c r="C39" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D39" s="108" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E39" s="108" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F39" s="113">
         <v>1</v>
@@ -14779,23 +14951,23 @@
       <c r="M39" s="113"/>
       <c r="N39" s="113"/>
       <c r="O39" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P39" s="108"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="108" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B40" s="108"/>
       <c r="C40" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D40" s="108" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E40" s="108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F40" s="113">
         <v>1</v>
@@ -14811,23 +14983,23 @@
       <c r="M40" s="113"/>
       <c r="N40" s="113"/>
       <c r="O40" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P40" s="108"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="108" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B41" s="108"/>
       <c r="C41" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D41" s="108" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E41" s="108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F41" s="113">
         <v>1</v>
@@ -14843,25 +15015,25 @@
       <c r="M41" s="113"/>
       <c r="N41" s="113"/>
       <c r="O41" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="P41" s="108"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="108" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B42" s="108" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C42" s="111" t="s">
         <v>179</v>
       </c>
       <c r="D42" s="108" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E42" s="108" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F42" s="113"/>
       <c r="G42" s="113"/>
@@ -14875,10 +15047,10 @@
       <c r="M42" s="113"/>
       <c r="N42" s="113"/>
       <c r="O42" s="108" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P42" s="108" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -14890,8 +15062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7386B590-2030-4E65-9D5D-5A29BD274FD2}">
   <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -14910,25 +15082,25 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>222</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>141</v>
@@ -14937,10 +15109,10 @@
         <v>137</v>
       </c>
       <c r="J2" s="120" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K2" s="120" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L2" s="120" t="s">
         <v>31</v>
@@ -14948,7 +15120,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -14978,7 +15150,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -15008,7 +15180,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -15040,7 +15212,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -15057,7 +15229,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="108">
@@ -15072,7 +15244,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -15102,7 +15274,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -15132,7 +15304,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -15164,7 +15336,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -15194,7 +15366,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -15224,7 +15396,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -15252,7 +15424,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -15282,7 +15454,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -15299,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="108">
@@ -15314,7 +15486,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -15344,7 +15516,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -15374,7 +15546,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -15391,7 +15563,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="108">
@@ -15406,7 +15578,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -15622,7 +15794,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -15652,7 +15824,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -15682,7 +15854,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -15699,7 +15871,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="108">
@@ -15714,7 +15886,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -15744,7 +15916,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -15776,7 +15948,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -15806,7 +15978,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -15840,7 +16012,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -15874,7 +16046,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -15908,7 +16080,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
@@ -15944,7 +16116,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -15978,7 +16150,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -16014,7 +16186,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>15</v>
@@ -16044,7 +16216,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>15</v>
@@ -16061,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="108">
@@ -16076,7 +16248,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>15</v>
@@ -16108,7 +16280,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>15</v>
@@ -16140,7 +16312,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>15</v>
@@ -16172,7 +16344,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>15</v>
@@ -16189,7 +16361,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="108">
@@ -16204,7 +16376,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>15</v>
@@ -16236,7 +16408,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
@@ -16268,7 +16440,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -16298,7 +16470,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -16330,7 +16502,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -16360,7 +16532,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>15</v>
@@ -16390,7 +16562,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>15</v>
@@ -16420,7 +16592,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>15</v>
@@ -16450,7 +16622,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>15</v>
@@ -16482,7 +16654,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>15</v>
@@ -16512,7 +16684,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>15</v>
@@ -16544,7 +16716,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>15</v>
@@ -16574,7 +16746,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>15</v>
@@ -16604,7 +16776,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>15</v>
@@ -16634,7 +16806,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>15</v>
@@ -16666,7 +16838,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>15</v>
@@ -16683,7 +16855,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="108">
@@ -16698,7 +16870,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>15</v>
@@ -16730,7 +16902,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>15</v>
@@ -16805,16 +16977,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="108" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C1" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D1" s="108" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E1" s="108" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F1" s="108" t="s">
         <v>118</v>
@@ -16822,10 +16994,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="108" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C2" s="109" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D2" s="108">
         <v>1</v>
@@ -16860,7 +17032,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="108" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C4" s="109">
         <v>2</v>
@@ -17295,8 +17467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EDE313-0212-439C-99DB-0DB7FC5305D4}">
   <dimension ref="A1:AR36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="S29" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -17317,7 +17489,8 @@
     <col min="22" max="23" width="5.453125" customWidth="1"/>
     <col min="24" max="24" width="6.1796875" customWidth="1"/>
     <col min="25" max="25" width="4.7265625" customWidth="1"/>
-    <col min="26" max="27" width="5.453125" customWidth="1"/>
+    <col min="26" max="26" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.453125" customWidth="1"/>
     <col min="28" max="28" width="6.26953125" customWidth="1"/>
     <col min="29" max="29" width="4.7265625" customWidth="1"/>
     <col min="30" max="31" width="5.453125" customWidth="1"/>
@@ -17330,7 +17503,7 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="I1" s="123" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J1" s="123"/>
       <c r="K1" s="123"/>
@@ -17401,7 +17574,7 @@
       <c r="AE2" s="129"/>
       <c r="AF2" s="129"/>
       <c r="AG2" s="123" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AH2" s="123"/>
       <c r="AI2" s="123"/>
@@ -17409,7 +17582,7 @@
       <c r="AK2" s="123"/>
       <c r="AL2" s="123"/>
       <c r="AM2" s="124" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AN2" s="124"/>
       <c r="AO2" s="124"/>
@@ -17419,22 +17592,22 @@
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>18</v>
@@ -17443,7 +17616,7 @@
         <v>223</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>6</v>
@@ -17455,7 +17628,7 @@
         <v>19</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>6</v>
@@ -17467,7 +17640,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>6</v>
@@ -17479,7 +17652,7 @@
         <v>19</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>6</v>
@@ -17491,7 +17664,7 @@
         <v>19</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Z3" s="12" t="s">
         <v>6</v>
@@ -17503,7 +17676,7 @@
         <v>19</v>
       </c>
       <c r="AC3" s="69" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AD3" s="70" t="s">
         <v>6</v>
@@ -17515,40 +17688,40 @@
         <v>19</v>
       </c>
       <c r="AG3" s="90" t="s">
+        <v>381</v>
+      </c>
+      <c r="AH3" s="90" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI3" s="90" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ3" s="90" t="s">
         <v>384</v>
       </c>
-      <c r="AH3" s="90" t="s">
+      <c r="AK3" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="AI3" s="90" t="s">
+      <c r="AL3" s="90" t="s">
         <v>386</v>
       </c>
-      <c r="AJ3" s="90" t="s">
+      <c r="AM3" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="AN3" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO3" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="AP3" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="AQ3" s="91" t="s">
         <v>387</v>
       </c>
-      <c r="AK3" s="90" t="s">
-        <v>388</v>
-      </c>
-      <c r="AL3" s="90" t="s">
-        <v>389</v>
-      </c>
-      <c r="AM3" s="91" t="s">
-        <v>384</v>
-      </c>
-      <c r="AN3" s="91" t="s">
-        <v>385</v>
-      </c>
-      <c r="AO3" s="91" t="s">
+      <c r="AR3" s="92" t="s">
         <v>386</v>
-      </c>
-      <c r="AP3" s="91" t="s">
-        <v>387</v>
-      </c>
-      <c r="AQ3" s="91" t="s">
-        <v>390</v>
-      </c>
-      <c r="AR3" s="92" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="15.5">
@@ -17567,7 +17740,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="15">
@@ -17667,7 +17840,7 @@
         <v>180</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
@@ -17707,13 +17880,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="15">
@@ -17813,15 +17986,15 @@
         <v>210</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL5" s="17"/>
       <c r="AM5" s="89" cm="1">
@@ -17857,7 +18030,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>143</v>
@@ -17865,7 +18038,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="15">
@@ -17965,10 +18138,10 @@
         <v>210</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
@@ -18013,7 +18186,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="15">
@@ -18113,14 +18286,14 @@
         <v>210</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM7" s="89" cm="1">
         <f t="array" ref="AM7">IF(AG7="Oui",($A7/$B7)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -18155,7 +18328,7 @@
         <v>2.5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>163</v>
@@ -18163,7 +18336,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="15">
@@ -18263,13 +18436,13 @@
         <v>210</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL8" s="17"/>
       <c r="AM8" s="89" cm="1">
@@ -18315,10 +18488,10 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="0"/>
@@ -18417,15 +18590,15 @@
         <v>240</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL9" s="17"/>
       <c r="AM9" s="89" cm="1">
@@ -18461,7 +18634,7 @@
         <v>3.75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>143</v>
@@ -18471,10 +18644,10 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" si="0"/>
@@ -18575,12 +18748,12 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM10" s="89" cm="1">
         <f t="array" ref="AM10">IF(AG10="Oui",($A10/$B10)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -18615,7 +18788,7 @@
         <v>3.75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>163</v>
@@ -18627,10 +18800,10 @@
         <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
@@ -18730,14 +18903,14 @@
       </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL11" s="17"/>
       <c r="AM11" s="89" cm="1">
@@ -18773,7 +18946,7 @@
         <v>3.75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>124</v>
@@ -18785,10 +18958,10 @@
         <v>160</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" si="0"/>
@@ -18889,10 +19062,10 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ12" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="17"/>
@@ -18941,10 +19114,10 @@
         <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="0"/>
@@ -19045,14 +19218,14 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM13" s="89" cm="1">
         <f t="array" ref="AM13">IF(AG13="Oui",($A13/$B13)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -19087,7 +19260,7 @@
         <v>3.75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>167</v>
@@ -19096,10 +19269,10 @@
         <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="0"/>
@@ -19199,7 +19372,7 @@
       </c>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
@@ -19238,7 +19411,7 @@
         <v>3.75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -19246,10 +19419,10 @@
         <v>143</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="0"/>
@@ -19348,10 +19521,10 @@
         <v>240</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
@@ -19390,14 +19563,14 @@
         <v>4.5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -19502,10 +19675,10 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL16" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM16" s="89" cm="1">
         <f t="array" ref="AM16">IF(AG16="Oui",($A16/$B16)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -19540,13 +19713,13 @@
         <v>4.5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="15">
@@ -19647,7 +19820,7 @@
       </c>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
@@ -19686,7 +19859,7 @@
         <v>7.5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -19795,10 +19968,10 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL18" s="17"/>
       <c r="AM18" s="89" cm="1">
@@ -19834,7 +20007,7 @@
         <v>7.5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>143</v>
@@ -19940,16 +20113,16 @@
         <v>480</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL19" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM19" s="89" cm="1">
         <f t="array" ref="AM19">IF(AG19="Oui",($A19/$B19)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -19984,7 +20157,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>160</v>
@@ -19992,7 +20165,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="15">
@@ -20093,13 +20266,13 @@
       </c>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="17"/>
@@ -20136,7 +20309,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>146</v>
@@ -20244,22 +20417,22 @@
         <v>540</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL21" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM21" s="89" cm="1">
         <f t="array" ref="AM21">IF(AG21="Oui",($A21/$B21)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -20294,17 +20467,17 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>167</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="15">
@@ -20405,13 +20578,13 @@
       </c>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK22" s="3"/>
       <c r="AL22" s="17"/>
@@ -20448,17 +20621,17 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="15">
@@ -20560,10 +20733,10 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ23" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="17"/>
@@ -20609,7 +20782,7 @@
         <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="15">
@@ -20714,7 +20887,7 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM24" s="89" cm="1">
         <f t="array" ref="AM24">IF(AG24="Oui",($A24/$B24)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -20749,17 +20922,17 @@
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>124</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="15">
@@ -20859,15 +21032,15 @@
         <v>900</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL25" s="17"/>
       <c r="AM25" s="89" cm="1">
@@ -20903,7 +21076,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>143</v>
@@ -20911,7 +21084,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="15">
@@ -21011,7 +21184,7 @@
         <v>900</v>
       </c>
       <c r="AG26" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
@@ -21051,10 +21224,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -21162,13 +21335,13 @@
       </c>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI27" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ27" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="17"/>
@@ -21205,14 +21378,14 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>157</v>
@@ -21315,22 +21488,22 @@
         <v>1260</v>
       </c>
       <c r="AG28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK28" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL28" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM28" s="89" cm="1">
         <f t="array" ref="AM28">IF(AG28="Oui",($A28/$B28)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -21365,17 +21538,17 @@
         <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="15">
@@ -21480,7 +21653,7 @@
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM29" s="89" cm="1">
         <f t="array" ref="AM29">IF(AG29="Oui",($A29/$B29)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -21515,17 +21688,17 @@
         <v>37.5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="15">
@@ -21626,14 +21799,14 @@
       </c>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL30" s="17"/>
       <c r="AM30" s="89" cm="1">
@@ -21669,15 +21842,15 @@
         <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="15">
@@ -21778,7 +21951,7 @@
       </c>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
@@ -21817,7 +21990,7 @@
         <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>146</v>
@@ -21929,7 +22102,7 @@
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL32" s="17"/>
       <c r="AM32" s="89" cm="1">
@@ -21965,7 +22138,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>124</v>
@@ -22078,7 +22251,7 @@
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM33" s="89" cm="1">
         <f t="array" ref="AM33">IF(AG33="Oui",($A33/$B33)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -22121,7 +22294,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="15">
@@ -22226,7 +22399,7 @@
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM34" s="89" cm="1">
         <f t="array" ref="AM34">IF(AG34="Oui",($A34/$B34)/(SUMPRODUCT((AG$4:AG$35="Oui")*($A$4:$A$35/$B$4:$B$35))),0)</f>
@@ -22378,7 +22551,7 @@
       <c r="AH35" s="53"/>
       <c r="AI35" s="53"/>
       <c r="AJ35" s="53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AK35" s="53"/>
       <c r="AL35" s="66"/>
@@ -22409,13 +22582,13 @@
     </row>
     <row r="36" spans="1:44">
       <c r="A36" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -22577,7 +22750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17125DB-0DCC-4737-A7DF-4E33D8880636}">
   <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -22602,40 +22775,40 @@
         <v>223</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -22658,12 +22831,12 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="17"/>
       <c r="D5" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -22682,14 +22855,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="53" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -22712,14 +22885,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -22738,12 +22911,12 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -22767,7 +22940,7 @@
       <c r="B9" s="103"/>
       <c r="C9" s="18"/>
       <c r="D9" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -22789,7 +22962,7 @@
       <c r="B10" s="104"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -22806,12 +22979,12 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="103" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B11" s="103"/>
       <c r="C11" s="18"/>
       <c r="D11" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -22833,7 +23006,7 @@
       <c r="B12" s="103"/>
       <c r="C12" s="18"/>
       <c r="D12" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -22855,7 +23028,7 @@
       <c r="B13" s="103"/>
       <c r="C13" s="18"/>
       <c r="D13" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -22876,7 +23049,7 @@
       </c>
       <c r="B14" s="103"/>
       <c r="D14" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -22893,12 +23066,12 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="17"/>
       <c r="D15" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -22915,16 +23088,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -22944,11 +23117,11 @@
         <v>177</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -22974,7 +23147,7 @@
       <c r="B18" s="105"/>
       <c r="C18" s="17"/>
       <c r="D18" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -22991,16 +23164,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -23019,14 +23192,14 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -23050,7 +23223,7 @@
       <c r="B21" s="105"/>
       <c r="C21" s="17"/>
       <c r="D21" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -23067,14 +23240,14 @@
     </row>
     <row r="22" spans="1:10" ht="29">
       <c r="A22" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
@@ -23091,16 +23264,16 @@
     </row>
     <row r="23" spans="1:10" ht="29">
       <c r="A23" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -23117,16 +23290,16 @@
     </row>
     <row r="24" spans="1:10" ht="29">
       <c r="A24" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -23143,14 +23316,14 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="103" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B25" s="103"/>
       <c r="C25" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -23167,12 +23340,12 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="105" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B26" s="105"/>
       <c r="C26" s="17"/>
       <c r="D26" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -23189,12 +23362,12 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="17"/>
       <c r="D27" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -23218,7 +23391,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="17"/>
       <c r="D28" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -23240,7 +23413,7 @@
       <c r="B29" s="105"/>
       <c r="C29" s="17"/>
       <c r="D29" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -23262,7 +23435,7 @@
       <c r="B30" s="103"/>
       <c r="C30" s="17"/>
       <c r="D30" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -23279,12 +23452,12 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="17"/>
       <c r="D31" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -23303,14 +23476,14 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -23338,7 +23511,7 @@
       <c r="B33" s="105"/>
       <c r="C33" s="17"/>
       <c r="D33" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -23360,7 +23533,7 @@
       <c r="B34" s="105"/>
       <c r="C34" s="17"/>
       <c r="D34" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -23377,14 +23550,14 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -23407,14 +23580,14 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C36" s="66"/>
       <c r="D36" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -23431,16 +23604,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E37" s="3">
         <v>5</v>
@@ -23457,16 +23630,16 @@
     </row>
     <row r="38" spans="1:10" ht="29">
       <c r="A38" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
